--- a/public/files/Reports Summary.xlsx
+++ b/public/files/Reports Summary.xlsx
@@ -8632,16 +8632,16 @@
         <v>1140</v>
       </c>
       <c r="H72">
-        <v>26</v>
+        <v>2606</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J72">
-        <v>14</v>
+        <v>873.99998092651</v>
       </c>
       <c r="K72">
-        <v>1126</v>
+        <v>266.00001907349</v>
       </c>
     </row>
     <row r="73" spans="1:11">
